--- a/biology/Histoire de la zoologie et de la botanique/Theodore_Sherman_Palmer/Theodore_Sherman_Palmer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Theodore_Sherman_Palmer/Theodore_Sherman_Palmer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Theodore Sherman Palmer est un zoologiste américain, né le 26 janvier 1868 à Oakland en Californie et mort le 23 juillet 1955.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son Bachelor of Arts en 1888 à l’Université de Californie puis son doctorat de médecine à l’université de Georgetown.
 Il est premier-assistant ornithologue au sein de l’U.S. Biological Survey de 1890 à 1896. Il dirige une expédition de cinq mois dans la vallée de la Mort en 1891. Il est assistant-chef de 1896 à 1902 puis de 1910 à 1914, assistant responsable des réserves de chasse de 1902 à 1910 et de 1914 à 1916. Toujours dans cette même institution, il devient expert pour la conservation du gibier de 1916 à 1924, biologiste de 1924 à 1928, puis biologiste-sénior de 1928 à 1933.
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.</t>
         </is>
